--- a/data/neut_assays/plate_reader_data/589v1_NeutralizationAssay.xlsx
+++ b/data/neut_assays/plate_reader_data/589v1_NeutralizationAssay.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/computational_notebooks/jbloom/2019/map_flu_serum_Perth2009_H3_HA/data/neut_assays/plate_reader_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7801E8E-A139-6D4E-9314-577AFA9C9D03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="160" windowWidth="24740" windowHeight="13720"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24740" windowHeight="13720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Bloom Lab</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,19 +409,22 @@
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -708,16 +716,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -733,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -741,7 +749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -749,7 +757,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -757,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -765,7 +773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -773,7 +781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -781,17 +789,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -799,12 +807,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -815,7 +823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -826,7 +834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -837,7 +845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -848,7 +856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -859,7 +867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -870,7 +878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -881,7 +889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -892,7 +900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -903,7 +911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -914,7 +922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -922,12 +930,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -968,12 +976,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>40</v>
       </c>
@@ -1014,7 +1022,7 @@
         <v>14530</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>38388</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>24267</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1137,7 +1145,7 @@
         <v>19818</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
@@ -1178,7 +1186,7 @@
         <v>20654</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>45</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>34855</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>11239</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1278,21 +1286,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>